--- a/pred_ohlcv/54_21/2020-01-24 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6433.57338777741</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6458.74788777741</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6319.15978777741</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4265.67378777741</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6817.735087777411</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5871.996987777411</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5888.091287777411</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5052.15588777741</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5556.746187777411</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5569.830687777411</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5169.830687777411</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5168.830687777411</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5292.220987777411</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6838.63151222259</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6761.40141222259</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6746.60141222259</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6327.60141222259</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6168.88101222259</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6169.63841222259</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5222.900312222589</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5224.900312222589</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5205.253512222589</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5179.157612222589</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5180.157612222589</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>6668.848612222589</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6514.486512222589</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6552.486512222589</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4898.058412222589</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4710.90171222259</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-59536.62922466025</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-58488.35632466024</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-58628.33152466024</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-58578.39462466024</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-58916.64342466024</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-58660.94232466025</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-58574.94232466025</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-66116.51152466025</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-65938.12612466025</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-66266.99362466024</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-66284.38992466024</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-66390.99052466024</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-66389.99052466024</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-68040.89232466025</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-68497.67452466025</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-69776.28002466026</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-101861.1286715793</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-103030.4140715793</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-107423.4140902091</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-107433.8410902091</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-108336.0377902091</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-108157.9377902091</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6433.57338777741</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6458.74788777741</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6319.15978777741</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4265.67378777741</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6817.735087777411</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5871.996987777411</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5888.091287777411</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5052.15588777741</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5556.746187777411</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5569.830687777411</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5169.830687777411</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5168.830687777411</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5292.220987777411</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6838.63151222259</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6761.40141222259</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6746.60141222259</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6327.60141222259</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6168.88101222259</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6169.63841222259</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5222.900312222589</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5224.900312222589</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5205.253512222589</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>6668.848612222589</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6514.486512222589</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6552.486512222589</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4898.058412222589</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2038.508712222589</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-59536.62922466025</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-58488.35632466024</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-58628.33152466024</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-58578.39462466024</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-58916.64342466024</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-58660.94232466025</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-58574.94232466025</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-66116.51152466025</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-65938.12612466025</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-66266.99362466024</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-66284.38992466024</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-66390.99052466024</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-66389.99052466024</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-68040.89232466025</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-68497.67452466025</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-69776.28002466026</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-101576.4863461628</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-101876.4863461628</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-101861.1286715793</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-102120.6955715793</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-102696.9926715793</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-102387.8679715793</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-103032.4997715793</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-103030.4140715793</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-103360.9665715793</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-103360.1674715793</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-101772.9051715793</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-101367.9165715793</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-107423.4140902091</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-107433.8410902091</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-108336.0377902091</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
